--- a/Output_OpenAgent.xlsx
+++ b/Output_OpenAgent.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <x:si>
     <x:t>Address</x:t>
   </x:si>
@@ -46,6 +46,18 @@
     <x:t>5 darla place rosebery nt 0832</x:t>
   </x:si>
   <x:si>
+    <x:t>$628K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$675K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$722K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful</x:t>
+  </x:si>
+  <x:si>
     <x:t>97 brighton drive bella vista nsw 2153</x:t>
   </x:si>
   <x:si>
@@ -58,9 +70,6 @@
     <x:t>$1.55M</x:t>
   </x:si>
   <x:si>
-    <x:t>Successful</x:t>
-  </x:si>
-  <x:si>
     <x:t>74 station street bonnells bay nsw 2264</x:t>
   </x:si>
   <x:si>
@@ -136,99 +145,111 @@
     <x:t>1021 freemans drive cooranbong nsw 2265</x:t>
   </x:si>
   <x:si>
+    <x:t>$927K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.57M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 moray court alexandra hills qld 4161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 limewood place algester qld 4115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$442K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$475K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$508K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 emerald place green point nsw 2428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 keperra court arana hills qld 4054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$535K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$575K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$615K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8a ault place illawong nsw 2234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.4M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142 byron street inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$177K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$238K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$299K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 east street inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$198K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$213K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$228K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46 sayers lane inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$427K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$723K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 jack street inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46 ross street inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$288K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 tulare crescent inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$306K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$338K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$370K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 vintage close inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
     <x:t>Price Missing</x:t>
   </x:si>
   <x:si>
     <x:t>Failed</x:t>
   </x:si>
   <x:si>
-    <x:t>8 moray court alexandra hills qld 4161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 limewood place algester qld 4115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$442K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$475K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$508K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 emerald place green point nsw 2428</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 keperra court arana hills qld 4054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8a ault place illawong nsw 2234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.4M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142 byron street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$177K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$238K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$299K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 east street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$198K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$213K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$228K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46 sayers lane inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$427K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$575K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$723K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 jack street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46 ross street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$288K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 tulare crescent inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$306K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$338K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$370K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 vintage close inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
     <x:t>38 waratah avenue inverell nsw 2360</x:t>
   </x:si>
   <x:si>
@@ -265,15 +286,6 @@
     <x:t>15 kanes road bridges qld 4561</x:t>
   </x:si>
   <x:si>
-    <x:t>$628K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$675K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$722K</x:t>
-  </x:si>
-  <x:si>
     <x:t>68/220 christine avenue burleigh waters qld 4220</x:t>
   </x:si>
   <x:si>
@@ -310,9 +322,6 @@
     <x:t>$425K</x:t>
   </x:si>
   <x:si>
-    <x:t>$535K</x:t>
-  </x:si>
-  <x:si>
     <x:t>61 riverton street clayfield qld 4011</x:t>
   </x:si>
   <x:si>
@@ -695,9 +704,6 @@
   </x:si>
   <x:si>
     <x:t>22 barwon street lesmurdie wa 6076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$615K</x:t>
   </x:si>
   <x:si>
     <x:t>17 freeman way marmion wa 6020</x:t>
@@ -1542,3054 +1548,3078 @@
       <x:c r="A2" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A7" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A8" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A10" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A12" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A14" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A15" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A16" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A17" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A18" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A20" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A21" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A22" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A23" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A24" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A25" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A26" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A27" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A28" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A29" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A30" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A31" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A32" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A33" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A34" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F34" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A35" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A36" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A37" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A38" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A39" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A40" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A41" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A42" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A43" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A44" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A45" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A46" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A47" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A48" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A49" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A50" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F50" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A51" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E51" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F51" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A52" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E52" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F52" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A53" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F53" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A54" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A55" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A56" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A57" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A58" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A59" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A60" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A61" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A62" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A63" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A64" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A65" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A66" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A67" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A68" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D68" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E68" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F68" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A69" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C69" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D69" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E69" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F69" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A70" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D70" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E70" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F70" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A71" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A72" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A73" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C73" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D73" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E73" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F73" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A74" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D74" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E74" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F74" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A75" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C75" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D75" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E75" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F75" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A76" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C76" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D76" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E76" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F76" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A77" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C77" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D77" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E77" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F77" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A78" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C78" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D78" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E78" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F78" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A79" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C79" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D79" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E79" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F79" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A80" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C80" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D80" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E80" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F80" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A81" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C81" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E81" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F81" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A82" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C82" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D82" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E82" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F82" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A83" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C83" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D83" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E83" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F83" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A84" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C84" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D84" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E84" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F84" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A85" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C85" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D85" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E85" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F85" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A86" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C86" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D86" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E86" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F86" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A87" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C87" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D87" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E87" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F87" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A88" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C88" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D88" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E88" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F88" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A89" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C89" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D89" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E89" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="F89" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A90" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C90" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D90" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E90" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F90" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A91" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C91" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D91" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E91" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F91" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A92" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C92" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D92" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E92" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F92" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A93" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C93" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D93" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E93" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F93" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A94" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A95" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A96" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A97" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C97" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D97" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E97" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F97" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A98" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C98" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D98" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E98" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F98" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A99" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C99" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D99" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E99" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F99" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A100" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C100" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D100" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E100" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F100" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A101" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C101" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D101" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E101" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F101" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A102" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C102" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D102" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E102" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F102" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A103" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C103" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D103" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E103" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F103" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A104" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C104" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D104" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E104" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F104" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A105" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C105" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D105" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E105" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F105" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A106" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A107" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A108" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A109" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A110" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A111" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A112" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A113" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A114" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A115" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A116" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A117" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A118" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A119" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A120" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A121" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A122" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A123" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C123" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D123" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E123" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F123" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A124" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C124" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D124" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E124" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F124" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A125" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C125" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D125" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E125" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F125" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A126" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C126" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D126" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E126" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F126" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A127" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C127" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D127" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E127" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F127" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A128" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C128" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D128" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E128" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F128" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A129" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C129" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D129" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E129" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F129" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A130" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C130" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D130" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E130" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="F130" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A131" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C131" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D131" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E131" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F131" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A132" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C132" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D132" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E132" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="F132" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A133" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C133" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D133" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E133" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F133" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A134" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C134" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D134" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E134" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F134" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A135" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C135" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D135" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E135" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F135" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A136" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C136" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D136" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E136" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F136" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A137" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C137" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D137" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E137" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F137" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A138" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C138" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D138" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E138" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F138" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A139" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C139" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D139" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E139" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F139" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A140" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C140" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D140" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E140" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F140" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A141" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C141" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D141" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E141" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F141" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A142" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C142" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D142" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E142" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F142" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A143" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C143" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D143" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E143" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F143" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A144" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C144" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D144" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E144" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F144" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A145" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C145" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D145" s="1" t="s">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="E145" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="F145" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A146" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C146" s="1" t="s">
-        <x:v>284</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D146" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E146" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F146" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A147" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C147" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D147" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="E147" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="F147" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A148" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C148" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D148" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E148" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F148" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A149" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C149" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D149" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E149" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="F149" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A150" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C150" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D150" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E150" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F150" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A151" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C151" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D151" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E151" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F151" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A152" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C152" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D152" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E152" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="F152" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A153" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C153" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D153" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E153" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F153" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A154" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C154" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D154" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E154" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F154" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A155" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C155" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D155" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E155" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F155" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A156" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C156" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D156" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E156" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F156" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A157" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C157" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D157" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E157" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="F157" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A158" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C158" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D158" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E158" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F158" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A159" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C159" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D159" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E159" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F159" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A160" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C160" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D160" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E160" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F160" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A161" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C161" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="D161" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E161" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="F161" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A162" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C162" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D162" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E162" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F162" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A163" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C163" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D163" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E163" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="F163" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A164" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C164" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D164" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E164" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F164" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A165" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C165" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D165" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E165" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F165" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A166" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C166" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D166" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E166" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="F166" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A167" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C167" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D167" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E167" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F167" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A168" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C168" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="D168" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E168" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F168" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A169" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C169" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D169" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E169" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F169" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A170" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C170" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="D170" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="E170" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="F170" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A171" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C171" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D171" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E171" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F171" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A172" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C172" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D172" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E172" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F172" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A173" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C173" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D173" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E173" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F173" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A174" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C174" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D174" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E174" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F174" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A175" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C175" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D175" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E175" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F175" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A176" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C176" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D176" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E176" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F176" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A177" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C177" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D177" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="E177" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="F177" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A178" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C178" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D178" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E178" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="F178" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A179" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C179" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D179" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E179" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="F179" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A180" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C180" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D180" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E180" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F180" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A181" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C181" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D181" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E181" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F181" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A182" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C182" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D182" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E182" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F182" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A183" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C183" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D183" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E183" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F183" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A184" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C184" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D184" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E184" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F184" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A185" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C185" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D185" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E185" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F185" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A186" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C186" s="1" t="s">
-        <x:v>358</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D186" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="E186" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="F186" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A187" s="1" t="s">
-        <x:v>361</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C187" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D187" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E187" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F187" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A188" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C188" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D188" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E188" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F188" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A189" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C189" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D189" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E189" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F189" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A190" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C190" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D190" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E190" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F190" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A191" s="1" t="s">
-        <x:v>365</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C191" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D191" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E191" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F191" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A192" s="1" t="s">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C192" s="1" t="s">
-        <x:v>367</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D192" s="1" t="s">
-        <x:v>368</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E192" s="1" t="s">
-        <x:v>369</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="F192" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A193" s="1" t="s">
-        <x:v>370</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C193" s="1" t="s">
-        <x:v>371</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D193" s="1" t="s">
-        <x:v>372</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E193" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F193" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A194" s="1" t="s">
-        <x:v>373</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C194" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D194" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E194" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="F194" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A195" s="1" t="s">
-        <x:v>374</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C195" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D195" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E195" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F195" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A196" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C196" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D196" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E196" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F196" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A197" s="1" t="s">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C197" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D197" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E197" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F197" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A198" s="1" t="s">
-        <x:v>377</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C198" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D198" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E198" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F198" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A199" s="1" t="s">
-        <x:v>378</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C199" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D199" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E199" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F199" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output_OpenAgent.xlsx
+++ b/Output_OpenAgent.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
   <x:si>
     <x:t>Address</x:t>
   </x:si>
@@ -46,6 +46,177 @@
     <x:t>5 darla place rosebery nt 0832</x:t>
   </x:si>
   <x:si>
+    <x:t>$650k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97 brighton drive bella vista nsw 2153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.40M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74 station street bonnells bay nsw 2264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$375k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41 mellor place bonnyrigg heights nsw 2177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.20M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 eridge park road burradoo nsw 2576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.60M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 norfolk street cardiff nsw 2285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$500k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1978 cawongla road cawongla nsw 2474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$300k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 tannabah street coonabarabran nsw 2357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$250k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1021 freemans drive cooranbong nsw 2265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Address Not Found</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 moray court alexandra hills qld 4161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 limewood place algester qld 4115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$450k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 emerald place green point nsw 2428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$600k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 keperra court arana hills qld 4054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$550k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8a ault place illawong nsw 2234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.50M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142 byron street inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$225k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 east street inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$200k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46 sayers lane inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 jack street inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46 ross street inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 tulare crescent inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$306K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$338K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$370K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 vintage close inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price Missing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38 waratah avenue inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$152K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$163K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$174K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82 jerrara road jerrara nsw 2533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3.05M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3.38M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3.7M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 bixby court boronia heights qld 4124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$361K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$388K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$415K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13 nanbaree drive bray park qld 4500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$363K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 kanes road bridges qld 4561</x:t>
+  </x:si>
+  <x:si>
     <x:t>$628K</x:t>
   </x:si>
   <x:si>
@@ -55,46 +226,889 @@
     <x:t>$722K</x:t>
   </x:si>
   <x:si>
-    <x:t>Successful</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97 brighton drive bella vista nsw 2153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.35M</x:t>
+    <x:t>68/220 christine avenue burleigh waters qld 4220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$353K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$390K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$427K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 clara street camp hill qld 4152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$744K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$850K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$956K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 lawton lane canungra qld 4275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$489K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$525K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$561K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265 winstanley street carindale qld 4152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32 molesworth street lismore nsw 2480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$315K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$425K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$535K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61 riverton street clayfield qld 4011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$853K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.15M</x:t>
   </x:si>
   <x:si>
     <x:t>$1.45M</x:t>
   </x:si>
   <x:si>
-    <x:t>$1.55M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74 station street bonnells bay nsw 2264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$361K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$388K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$415K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41 mellor place bonnyrigg heights nsw 2177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.16M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.25M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.34M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 eridge park road burradoo nsw 2576</x:t>
+    <x:t>201/255-261 boundary street coolangatta qld 4225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 kimberly grange court curra qld 4570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$396K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$454K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/8 dandaloo drive currumbin qld 4223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$851K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$941K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.03M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 beaufort place deception bay qld 4508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$291K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$313K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$335K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-12 bishop street eagleby qld 4207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 tineele place emerald qld 4720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/26 fehlberg street everton park qld 4053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/19 nitawill street everton park qld 4053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$273K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$293K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 radiata place forest lake qld 4078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/33 station avenue gaythorne qld 4051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 iron street gympie qld 4570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$230K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$263K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$296K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180 bapaume road holland park west qld 4121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156 birdwood road holland park west qld 4121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$679K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$775K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$871K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/1-3 percival street penshurst nsw 2222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201 klingner road kippa-ring qld 4021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/6 hentdale court labrador qld 4215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54/91 hoare street manunda qld 4870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35 christensen crescent maryborough qld 4650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$175K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$188K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$201K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287 little nerang road mudgeeraba qld 4213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$978K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.05M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.12M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 planet place mudgeeraba qld 4213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 james street south windsor nsw 2756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$725K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 rovere street nerang qld 4211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$442K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$475K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$508K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/45 wickham street newmarket qld 4051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 wyndham street north ipswich qld 4305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$238K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$288K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29 heathcote avenue north lakes qld 4509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 lochern court north lakes qld 4509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$828K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/9 olive street nundah qld 4012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102 mcauley parade pacific pines qld 4211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33 leyte avenue palm beach qld 4221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/4 jacob street tea gardens nsw 2324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$319K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42a penrose circuit redbank plains qld 4301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 ingles drive redbank plains qld 4301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52 bentley drive regency downs qld 4341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36 south street rockhampton city qld 4700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 beechal street runcorn qld 4113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$582K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$625K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$668K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50 queen street warialda nsw 2402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$208K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$268K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 tolman street sippy downs qld 4556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 elmwood circuit springfield lakes qld 4300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80d/26-38 mecklem street strathpine qld 4500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37 melaleuca drive strathpine qld 4500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 pinecone street sunnybank qld 4109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$635K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$815K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69/3049 surfers paradise boulevard surfers paradise qld 4217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 porter street tara qld 4421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52/35 morrow street taringa qld 4068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80 selwyn street adelong nsw 2729</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/3 langton street toowoomba city qld 4350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$146K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$161K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$176K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13a bayview crescent annandale nsw 2038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.08M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.3M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.52M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1062 monduran road waterloo qld 4673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$177K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$299K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 minoa street woodridge qld 4114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 westaway place wynnum west qld 4178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25 eden way yeppoon qld 4703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$384K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$466K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 honeysuckle drive balaklava sa 5461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$351K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 brookman court blair athol sa 5084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/88 lyons road holden hill sa 5088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$214K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$237K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$260K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25 english drive millicent sa 5280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$222K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$254K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 ardenne close burwood vic 3125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$773K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$855K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$937K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/718 lower north east road paradise sa 5075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$251K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$287K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$323K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/1060 lygon street carlton north vic 3054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$576K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$619K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$662K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 dylan court woodcroft sa 5162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48 gordon street maribyrnong vic 3032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/392-394 nepean highway frankston vic 3199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 banool court frankston south vic 3199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 somers court glen waverley vic 3150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>259 heathcote-redesdale road heathcote vic 3523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52 pier road inverloch vic 3996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$520K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$575K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$630K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/210 cranbourne-frankston road langwarrin vic 3910</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 caulson court churchlands wa 6018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.31M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.59M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>229 dalyellup boulevard dalyellup wa 6230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 exchequer avenue greenfields wa 6210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7a kite court huntingdale wa 6110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 barwon street lesmurdie wa 6076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$615K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 freeman way marmion wa 6020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/33 kathleen avenue maylands wa 6051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 browns road smythesdale vic 3351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/17 fitzroy road rivervale wa 6103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 garibaldi street traralgon vic 3844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57 warwick street clearview sa 5085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 george flemming road wingham nsw 2429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39 harold reinhardt drive redbank plains qld 4301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 o'reilly crescent springfield lakes qld 4300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42 dog trap lane inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/105 simpson avenue rockingham wa 6168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 rosemount entrance pearsall wa 6065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 ventasso street clyde north vic 3978</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36/140 endeavour boulevard north lakes qld 4509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1003/33 mackenzie street melbourne vic 3000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 bowral way traralgon vic 3844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26 linacre crescent carindale qld 4152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101 swan parade warner qld 4500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72 macquarie circuit fitzgibbon qld 4018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 corsican street frankston north vic 3200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 tully lane coomera qld 4209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33 alternative way nimbin nsw 2480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305/17 grattan close forest lodge nsw 2037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$789K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$847K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$905K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 sonoma drive holmview qld 4207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 castle close tooradin vic 3980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 shelmore drive old beach tas 7017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$523K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$562K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$601K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127 seymour street traralgon vic 3844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/122 robsons road west wollongong nsw 2500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$676K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$726K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$776K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 otho street inverell nsw 2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$488K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35/35-a albury street ashford nsw 2361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 mcarthur parade baringa qld 4551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62 discovery boulevard moe vic 3825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$372K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$478K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10b whiteside road officer vic 3809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 thane court lloyd nsw 2650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27 shailer road shailer park qld 4128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/7 mayhill place craigie wa 6025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/7 mayhill place craigie wa 6025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/1b llewellyn street centenary heights qld 4350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$340K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$365K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 flanders place alexander heights wa 6064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4b nash street hillarys wa 6025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/89 britten-jones drive holt act 2615</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$453K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$517K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$581K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109 onkaparinga crescent kaleen act 2617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$656K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$794K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/6 stoddart drive bayview nt 0820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$342K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$391K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$440K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/101 mitchell street darwin nt 0800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 blue haze crescent banora point nsw 2486</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$791K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$909K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76 botanical circuit banora point nsw 2486</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-29 third avenue blacktown nsw 2148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 rosella close blaxland nsw 2774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.07M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.23M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90/18 edgewood crescent cabarita nsw 2137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.14M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.46M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 second avenue campsie nsw 2194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/16-18 carlton parade carlton nsw 2218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53 de meyrick avenue casula nsw 2170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/481 hanel street east albury nsw 2640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$151K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$162K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$173K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 mckinnon street east ballina nsw 2478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$919K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.18M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51 narang street east maitland nsw 2323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 short street forster nsw 2428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 pinaroo drive glenfield park nsw 2650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$245K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$281K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30 separation street allenstown qld 4700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 tindall court alligator creek qld 4816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$769K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$931K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/93 dobson street ascot qld 4007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78 pie street aspley qld 4034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 baldwin crescent avoca qld 4670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$308K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 ladbroke close carseldine qld 4034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/2a tanner street bargara qld 4670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$432K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$464K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$496K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/2a tanner street bargara qld 4670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4070/36 browning boulevard battery hill qld 4551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$333K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$358K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$383K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30 bawden street berserker qld 4701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 sovereign street iluka nsw 2466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 cloverbrook place bracken ridge qld 4017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 mississippi crescent kearns nsw 2558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 spruce court buderim qld 4556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 olsen street bundaberg east qld 4670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$198K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$213K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$228K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/3 goodwin street bundaberg south qld 4670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$207K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$236K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$265K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/15a avoca street bundaberg west qld 4670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$197K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$212K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$227K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/28-32 vantage point drive burleigh heads qld 4220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$723K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$829K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115 sea esplanade burnett heads qld 4670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/36-40 landers road lane cove north nsw 2066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 grace avenue cannonvale qld 4802</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35 wentworth drive capalaba qld 4157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33 glastonbury place carindale qld 4152</x:t>
   </x:si>
   <x:si>
     <x:t>$1.49M</x:t>
@@ -104,999 +1118,6 @@
   </x:si>
   <x:si>
     <x:t>$1.91M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 norfolk street cardiff nsw 2285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$489K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$525K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$561K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1978 cawongla road cawongla nsw 2474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$291K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$313K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$335K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 tannabah street coonabarabran nsw 2357</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$230K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$263K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$296K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1021 freemans drive cooranbong nsw 2265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$927K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.57M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 moray court alexandra hills qld 4161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 limewood place algester qld 4115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$442K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$475K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$508K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 emerald place green point nsw 2428</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 keperra court arana hills qld 4054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$535K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$575K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$615K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8a ault place illawong nsw 2234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.4M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142 byron street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$177K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$238K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$299K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 east street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$198K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$213K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$228K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46 sayers lane inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$427K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$723K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 jack street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46 ross street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$288K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 tulare crescent inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$306K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$338K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$370K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 vintage close inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price Missing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Failed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38 waratah avenue inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$152K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$163K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$174K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82 jerrara road jerrara nsw 2533</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$3.05M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$3.38M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$3.7M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 bixby court boronia heights qld 4124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 nanbaree drive bray park qld 4500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$363K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 kanes road bridges qld 4561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68/220 christine avenue burleigh waters qld 4220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$353K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$390K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 clara street camp hill qld 4152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$744K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$850K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$956K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 lawton lane canungra qld 4275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265 winstanley street carindale qld 4152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32 molesworth street lismore nsw 2480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$315K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$425K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61 riverton street clayfield qld 4011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$853K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.15M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201/255-261 boundary street coolangatta qld 4225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 kimberly grange court curra qld 4570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$396K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$454K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2/8 dandaloo drive currumbin qld 4223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$851K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$941K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.03M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 beaufort place deception bay qld 4508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-12 bishop street eagleby qld 4207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Address Not Found</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 tineele place emerald qld 4720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/26 fehlberg street everton park qld 4053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/19 nitawill street everton park qld 4053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$273K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$293K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 radiata place forest lake qld 4078</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/33 station avenue gaythorne qld 4051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 iron street gympie qld 4570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180 bapaume road holland park west qld 4121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156 birdwood road holland park west qld 4121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$679K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$775K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$871K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14/1-3 percival street penshurst nsw 2222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201 klingner road kippa-ring qld 4021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2/6 hentdale court labrador qld 4215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54/91 hoare street manunda qld 4870</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35 christensen crescent maryborough qld 4650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$175K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$188K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$201K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>287 little nerang road mudgeeraba qld 4213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$978K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.05M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.12M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 planet place mudgeeraba qld 4213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 james street south windsor nsw 2756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$725K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 rovere street nerang qld 4211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6/45 wickham street newmarket qld 4051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 wyndham street north ipswich qld 4305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29 heathcote avenue north lakes qld 4509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 lochern court north lakes qld 4509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$828K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/9 olive street nundah qld 4012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102 mcauley parade pacific pines qld 4211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33 leyte avenue palm beach qld 4221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6/4 jacob street tea gardens nsw 2324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$319K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42a penrose circuit redbank plains qld 4301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 ingles drive redbank plains qld 4301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52 bentley drive regency downs qld 4341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36 south street rockhampton city qld 4700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 beechal street runcorn qld 4113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$582K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$625K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$668K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50 queen street warialda nsw 2402</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$208K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$268K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 tolman street sippy downs qld 4556</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 elmwood circuit springfield lakes qld 4300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80d/26-38 mecklem street strathpine qld 4500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37 melaleuca drive strathpine qld 4500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 pinecone street sunnybank qld 4109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$635K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$815K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69/3049 surfers paradise boulevard surfers paradise qld 4217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 porter street tara qld 4421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52/35 morrow street taringa qld 4068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80 selwyn street adelong nsw 2729</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6/3 langton street toowoomba city qld 4350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$146K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$161K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$176K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13a bayview crescent annandale nsw 2038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$2.08M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$2.3M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$2.52M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1062 monduran road waterloo qld 4673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 minoa street woodridge qld 4114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 westaway place wynnum west qld 4178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25 eden way yeppoon qld 4703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$384K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$466K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 honeysuckle drive balaklava sa 5461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$351K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 brookman court blair athol sa 5084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8/88 lyons road holden hill sa 5088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$214K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$237K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$260K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25 english drive millicent sa 5280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$222K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$254K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 ardenne close burwood vic 3125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$773K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$855K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$937K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13/718 lower north east road paradise sa 5075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$251K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$287K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$323K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2/1060 lygon street carlton north vic 3054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$576K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$619K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$662K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 dylan court woodcroft sa 5162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48 gordon street maribyrnong vic 3032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22/392-394 nepean highway frankston vic 3199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 banool court frankston south vic 3199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 somers court glen waverley vic 3150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>259 heathcote-redesdale road heathcote vic 3523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52 pier road inverloch vic 3996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$520K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$630K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2/210 cranbourne-frankston road langwarrin vic 3910</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 caulson court churchlands wa 6018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.31M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.59M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>229 dalyellup boulevard dalyellup wa 6230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 exchequer avenue greenfields wa 6210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7a kite court huntingdale wa 6110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 barwon street lesmurdie wa 6076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 freeman way marmion wa 6020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15/33 kathleen avenue maylands wa 6051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 browns road smythesdale vic 3351</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/17 fitzroy road rivervale wa 6103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 garibaldi street traralgon vic 3844</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57 warwick street clearview sa 5085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 george flemming road wingham nsw 2429</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39 harold reinhardt drive redbank plains qld 4301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 o'reilly crescent springfield lakes qld 4300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42 dog trap lane inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/105 simpson avenue rockingham wa 6168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 rosemount entrance pearsall wa 6065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 ventasso street clyde north vic 3978</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36/140 endeavour boulevard north lakes qld 4509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1003/33 mackenzie street melbourne vic 3000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 bowral way traralgon vic 3844</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26 linacre crescent carindale qld 4152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101 swan parade warner qld 4500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72 macquarie circuit fitzgibbon qld 4018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 corsican street frankston north vic 3200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 tully lane coomera qld 4209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33 alternative way nimbin nsw 2480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305/17 grattan close forest lodge nsw 2037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$789K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$847K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$905K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 sonoma drive holmview qld 4207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 castle close tooradin vic 3980</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 shelmore drive old beach tas 7017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$523K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$562K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$601K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>127 seymour street traralgon vic 3844</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2/122 robsons road west wollongong nsw 2500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$676K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$726K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$776K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 otho street inverell nsw 2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$488K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35/35-a albury street ashford nsw 2361</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 mcarthur parade baringa qld 4551</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62 discovery boulevard moe vic 3825</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$372K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$478K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10b whiteside road officer vic 3809</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 thane court lloyd nsw 2650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27 shailer road shailer park qld 4128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4/7 mayhill place craigie wa 6025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6/7 mayhill place craigie wa 6025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/1b llewellyn street centenary heights qld 4350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$340K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$365K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 flanders place alexander heights wa 6064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4b nash street hillarys wa 6025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18/89 britten-jones drive holt act 2615</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$453K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$517K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$581K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109 onkaparinga crescent kaleen act 2617</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$656K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$794K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4/6 stoddart drive bayview nt 0820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$342K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$391K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$440K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15/101 mitchell street darwin nt 0800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 blue haze crescent banora point nsw 2486</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$791K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$909K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76 botanical circuit banora point nsw 2486</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-29 third avenue blacktown nsw 2148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 rosella close blaxland nsw 2774</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.07M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.23M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90/18 edgewood crescent cabarita nsw 2137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$2.14M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$2.46M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 second avenue campsie nsw 2194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/16-18 carlton parade carlton nsw 2218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53 de meyrick avenue casula nsw 2170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2/481 hanel street east albury nsw 2640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$151K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$162K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$173K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 mckinnon street east ballina nsw 2478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$919K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1.18M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51 narang street east maitland nsw 2323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 short street forster nsw 2428</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 pinaroo drive glenfield park nsw 2650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$245K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$281K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30 separation street allenstown qld 4700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 tindall court alligator creek qld 4816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$769K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$931K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7/93 dobson street ascot qld 4007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78 pie street aspley qld 4034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 baldwin crescent avoca qld 4670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$308K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 ladbroke close carseldine qld 4034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2/2a tanner street bargara qld 4670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$432K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$464K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$496K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/2a tanner street bargara qld 4670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4070/36 browning boulevard battery hill qld 4551</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$333K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$358K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$383K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30 bawden street berserker qld 4701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 sovereign street iluka nsw 2466</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 cloverbrook place bracken ridge qld 4017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 mississippi crescent kearns nsw 2558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 spruce court buderim qld 4556</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 olsen street bundaberg east qld 4670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3/3 goodwin street bundaberg south qld 4670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$207K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$236K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$265K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11/15a avoca street bundaberg west qld 4670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$197K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$212K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$227K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24/28-32 vantage point drive burleigh heads qld 4220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$829K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115 sea esplanade burnett heads qld 4670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/36-40 landers road lane cove north nsw 2066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 grace avenue cannonvale qld 4802</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35 wentworth drive capalaba qld 4157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33 glastonbury place carindale qld 4152</x:t>
   </x:si>
   <x:si>
     <x:t>233 memorial avenue liverpool nsw 2170</x:t>
@@ -1555,1660 +1576,1672 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A7" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A8" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A10" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A12" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A14" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A15" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A16" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A17" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A18" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A20" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A21" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A22" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A23" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A24" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A25" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A26" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A27" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A28" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A29" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A30" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A31" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A32" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A33" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A34" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F34" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A35" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A36" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A37" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A38" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A39" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A40" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A41" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A42" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A43" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A44" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A45" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A46" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A47" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A48" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A49" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A50" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F50" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A51" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E51" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F51" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A52" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E52" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F52" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A53" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E53" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F53" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A54" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A55" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A56" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A57" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A58" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A59" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A60" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A61" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A62" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A63" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A64" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A65" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A66" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A67" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A68" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D68" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E68" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F68" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A69" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C69" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D69" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E69" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F69" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A70" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D70" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E70" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F70" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A71" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A72" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A73" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C73" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D73" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E73" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F73" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A74" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D74" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E74" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F74" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A75" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C75" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D75" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E75" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F75" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A76" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C76" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D76" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E76" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F76" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A77" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C77" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D77" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E77" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F77" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A78" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C78" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D78" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E78" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F78" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A79" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C79" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D79" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E79" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F79" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A80" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C80" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D80" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E80" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F80" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A81" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C81" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E81" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F81" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A82" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C82" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D82" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E82" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F82" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A83" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C83" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D83" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E83" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F83" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A84" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C84" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D84" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E84" s="1" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="C84" s="1" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="D84" s="1" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E84" s="1" t="s">
-        <x:v>187</x:v>
-      </x:c>
       <x:c r="F84" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A85" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C85" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D85" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E85" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F85" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A86" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C86" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D86" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E86" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F86" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A87" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C87" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="D87" s="1" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="C87" s="1" t="s">
+      <x:c r="E87" s="1" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="D87" s="1" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="E87" s="1" t="s">
-        <x:v>194</x:v>
-      </x:c>
       <x:c r="F87" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A88" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C88" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="D88" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E88" s="1" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="C88" s="1" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="D88" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E88" s="1" t="s">
-        <x:v>197</x:v>
-      </x:c>
       <x:c r="F88" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A89" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C89" s="1" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D89" s="1" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="C89" s="1" t="s">
+      <x:c r="E89" s="1" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="D89" s="1" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="E89" s="1" t="s">
-        <x:v>201</x:v>
-      </x:c>
       <x:c r="F89" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A90" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C90" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D90" s="1" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="C90" s="1" t="s">
+      <x:c r="E90" s="1" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="D90" s="1" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="E90" s="1" t="s">
-        <x:v>205</x:v>
-      </x:c>
       <x:c r="F90" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A91" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C91" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D91" s="1" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="C91" s="1" t="s">
+      <x:c r="E91" s="1" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="D91" s="1" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="E91" s="1" t="s">
-        <x:v>209</x:v>
-      </x:c>
       <x:c r="F91" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A92" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C92" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D92" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E92" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F92" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A93" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C93" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D93" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E93" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F93" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A94" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A95" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A96" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A97" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C97" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D97" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E97" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F97" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A98" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C98" s="1" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D98" s="1" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="C98" s="1" t="s">
+      <x:c r="E98" s="1" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D98" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E98" s="1" t="s">
-        <x:v>218</x:v>
-      </x:c>
       <x:c r="F98" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A99" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C99" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D99" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E99" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F99" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A100" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C100" s="1" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="C100" s="1" t="s">
+      <x:c r="D100" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E100" s="1" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="D100" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E100" s="1" t="s">
-        <x:v>222</x:v>
-      </x:c>
       <x:c r="F100" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A101" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C101" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D101" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E101" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F101" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A102" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C102" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D102" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E102" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F102" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A103" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C103" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D103" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E103" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F103" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A104" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="C104" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D104" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E104" s="1" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="C104" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D104" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E104" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="F104" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3216,16 +3249,16 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="C105" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D105" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E105" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F105" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3318,16 +3351,16 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="C123" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D123" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E123" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F123" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3335,16 +3368,16 @@
         <x:v>246</x:v>
       </x:c>
       <x:c r="C124" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D124" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E124" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F124" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3352,16 +3385,16 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="C125" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D125" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E125" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F125" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3369,16 +3402,16 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="C126" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D126" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E126" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F126" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3395,7 +3428,7 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="F127" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3403,16 +3436,16 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="C128" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D128" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E128" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F128" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3420,16 +3453,16 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="C129" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D129" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E129" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F129" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3446,7 +3479,7 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="F130" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3454,16 +3487,16 @@
         <x:v>259</x:v>
       </x:c>
       <x:c r="C131" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D131" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E131" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F131" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3480,7 +3513,7 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="F132" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3488,16 +3521,16 @@
         <x:v>264</x:v>
       </x:c>
       <x:c r="C133" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D133" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E133" s="1" t="s">
         <x:v>265</x:v>
       </x:c>
       <x:c r="F133" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3505,16 +3538,16 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="C134" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D134" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E134" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F134" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3522,16 +3555,16 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="C135" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D135" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E135" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F135" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3542,13 +3575,13 @@
         <x:v>269</x:v>
       </x:c>
       <x:c r="D136" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E136" s="1" t="s">
         <x:v>270</x:v>
       </x:c>
       <x:c r="F136" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3556,16 +3589,16 @@
         <x:v>271</x:v>
       </x:c>
       <x:c r="C137" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D137" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E137" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F137" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3573,16 +3606,16 @@
         <x:v>272</x:v>
       </x:c>
       <x:c r="C138" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D138" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E138" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F138" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3590,16 +3623,16 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="C139" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D139" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E139" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F139" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3607,16 +3640,16 @@
         <x:v>274</x:v>
       </x:c>
       <x:c r="C140" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D140" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E140" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F140" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3624,16 +3657,16 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="C141" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D141" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E141" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F141" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3647,10 +3680,10 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="E142" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F142" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,16 +3691,16 @@
         <x:v>279</x:v>
       </x:c>
       <x:c r="C143" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D143" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E143" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F143" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3675,16 +3708,16 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="C144" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D144" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E144" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F144" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3701,7 +3734,7 @@
         <x:v>284</x:v>
       </x:c>
       <x:c r="F145" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3712,13 +3745,13 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="D146" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E146" s="1" t="s">
         <x:v>287</x:v>
       </x:c>
       <x:c r="F146" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3735,7 +3768,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="F147" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3743,16 +3776,16 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="C148" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D148" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E148" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F148" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3763,13 +3796,13 @@
         <x:v>294</x:v>
       </x:c>
       <x:c r="D149" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E149" s="1" t="s">
         <x:v>295</x:v>
       </x:c>
       <x:c r="F149" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,16 +3810,16 @@
         <x:v>296</x:v>
       </x:c>
       <x:c r="C150" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D150" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E150" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F150" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3794,16 +3827,16 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="C151" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D151" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E151" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F151" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3814,13 +3847,13 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="D152" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E152" s="1" t="s">
         <x:v>300</x:v>
       </x:c>
       <x:c r="F152" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3831,13 +3864,13 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="D153" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E153" s="1" t="s">
         <x:v>303</x:v>
       </x:c>
       <x:c r="F153" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,16 +3878,16 @@
         <x:v>304</x:v>
       </x:c>
       <x:c r="C154" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D154" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E154" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F154" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3862,16 +3895,16 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="C155" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D155" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E155" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F155" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3879,16 +3912,16 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="C156" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D156" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E156" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F156" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3905,7 +3938,7 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="F157" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3916,13 +3949,13 @@
         <x:v>312</x:v>
       </x:c>
       <x:c r="D158" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E158" s="1" t="s">
         <x:v>313</x:v>
       </x:c>
       <x:c r="F158" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3930,16 +3963,16 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="C159" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D159" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E159" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F159" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3947,16 +3980,16 @@
         <x:v>315</x:v>
       </x:c>
       <x:c r="C160" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D160" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E160" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F160" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3967,13 +4000,13 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="D161" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E161" s="1" t="s">
         <x:v>318</x:v>
       </x:c>
       <x:c r="F161" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -3981,16 +4014,16 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="C162" s="1" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D162" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E162" s="1" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D162" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E162" s="1" t="s">
-        <x:v>218</x:v>
-      </x:c>
       <x:c r="F162" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4001,13 +4034,13 @@
         <x:v>321</x:v>
       </x:c>
       <x:c r="D163" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E163" s="1" t="s">
         <x:v>322</x:v>
       </x:c>
       <x:c r="F163" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4015,16 +4048,16 @@
         <x:v>323</x:v>
       </x:c>
       <x:c r="C164" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D164" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E164" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F164" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4032,16 +4065,16 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="C165" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D165" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E165" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F165" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4049,16 +4082,16 @@
         <x:v>325</x:v>
       </x:c>
       <x:c r="C166" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D166" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E166" s="1" t="s">
         <x:v>326</x:v>
       </x:c>
       <x:c r="F166" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4066,16 +4099,16 @@
         <x:v>327</x:v>
       </x:c>
       <x:c r="C167" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D167" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E167" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F167" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4092,7 +4125,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="F168" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4100,16 +4133,16 @@
         <x:v>332</x:v>
       </x:c>
       <x:c r="C169" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D169" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E169" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F169" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4126,7 +4159,7 @@
         <x:v>336</x:v>
       </x:c>
       <x:c r="F170" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4134,16 +4167,16 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="C171" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D171" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E171" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F171" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4151,16 +4184,16 @@
         <x:v>338</x:v>
       </x:c>
       <x:c r="C172" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D172" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E172" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F172" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4168,16 +4201,16 @@
         <x:v>339</x:v>
       </x:c>
       <x:c r="C173" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D173" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E173" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F173" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4185,16 +4218,16 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="C174" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D174" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E174" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F174" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,16 +4235,16 @@
         <x:v>341</x:v>
       </x:c>
       <x:c r="C175" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D175" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E175" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F175" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -4219,407 +4252,407 @@
         <x:v>342</x:v>
       </x:c>
       <x:c r="C176" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D176" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="E176" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="F176" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A177" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C177" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="D177" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="E177" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="F177" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A178" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C178" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="D178" s="1" t="s">
-        <x:v>349</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E178" s="1" t="s">
-        <x:v>350</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="F178" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A179" s="1" t="s">
-        <x:v>351</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C179" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="D179" s="1" t="s">
         <x:v>263</x:v>
       </x:c>
       <x:c r="E179" s="1" t="s">
-        <x:v>352</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="F179" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A180" s="1" t="s">
-        <x:v>353</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C180" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D180" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E180" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F180" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A181" s="1" t="s">
-        <x:v>354</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C181" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D181" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E181" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F181" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A182" s="1" t="s">
-        <x:v>355</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C182" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D182" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E182" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F182" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A183" s="1" t="s">
-        <x:v>356</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C183" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D183" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E183" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F183" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A184" s="1" t="s">
-        <x:v>357</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C184" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="D184" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E184" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="F184" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A185" s="1" t="s">
-        <x:v>358</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C185" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D185" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E185" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F185" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A186" s="1" t="s">
-        <x:v>359</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C186" s="1" t="s">
-        <x:v>360</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D186" s="1" t="s">
-        <x:v>361</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="E186" s="1" t="s">
-        <x:v>362</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="F186" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A187" s="1" t="s">
-        <x:v>363</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C187" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D187" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E187" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F187" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A188" s="1" t="s">
-        <x:v>364</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C188" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D188" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E188" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F188" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A189" s="1" t="s">
-        <x:v>365</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C189" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D189" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E189" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F189" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A190" s="1" t="s">
-        <x:v>366</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C190" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D190" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E190" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F190" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A191" s="1" t="s">
-        <x:v>367</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C191" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D191" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E191" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F191" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A192" s="1" t="s">
-        <x:v>368</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C192" s="1" t="s">
-        <x:v>369</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D192" s="1" t="s">
-        <x:v>370</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="E192" s="1" t="s">
-        <x:v>371</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="F192" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A193" s="1" t="s">
-        <x:v>372</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C193" s="1" t="s">
-        <x:v>373</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D193" s="1" t="s">
-        <x:v>374</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="E193" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F193" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A194" s="1" t="s">
-        <x:v>375</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C194" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D194" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E194" s="1" t="s">
         <x:v>326</x:v>
       </x:c>
       <x:c r="F194" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A195" s="1" t="s">
-        <x:v>376</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C195" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D195" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E195" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F195" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A196" s="1" t="s">
-        <x:v>377</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C196" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D196" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E196" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F196" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A197" s="1" t="s">
-        <x:v>378</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C197" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D197" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E197" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F197" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A198" s="1" t="s">
-        <x:v>379</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C198" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D198" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E198" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F198" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <x:c r="A199" s="1" t="s">
-        <x:v>380</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C199" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D199" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E199" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F199" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
